--- a/biology/Mycologie/Anneau_(champignon)/Anneau_(champignon).xlsx
+++ b/biology/Mycologie/Anneau_(champignon)/Anneau_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’anneau est un ornement de forme circulaire présent sur le pied[1] (stipe) de certains champignons à chapeau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’anneau est un ornement de forme circulaire présent sur le pied (stipe) de certains champignons à chapeau.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Ontogénèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anneau est un reste[2], parfois rudimentaire ou fugace, du voile partiel qui, à l'état jeune, réunissait le pied à la marge du chapeau.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anneau est un reste, parfois rudimentaire ou fugace, du voile partiel qui, à l'état jeune, réunissait le pied à la marge du chapeau.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Aspects</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Différents aspects de l'anneau et exemples : 
 ascendant ou infère : montant du bas du pied (agaric)
@@ -552,7 +568,7 @@
 membraneux : très mince comme du papier (agaric)
 complexe, double, à roue dentée : (lépiote, agaric)
 bourrelet : (lépiote)
-frangé : (amanite) dont le bord est dilacéré ou très appendiculé[3]
+frangé : (amanite) dont le bord est dilacéré ou très appendiculé
 armille : engainant longuement le pied de bas en haut, comme une chaussette (armillaire, cystoderme)
 cortine : filamenteux comme une toile d'araignée (cortinaire)
 			Déliquescent
